--- a/docs/grammar4.3.xlsx
+++ b/docs/grammar4.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Grammar" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="148">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -1165,10 +1165,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">id,{,if,while,return,int,double,String,boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id,{,if,while,return</t>
+    <t xml:space="preserve">id,fqid,{,if,while,return,int,double,String,boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id,fqid,{,if,while,return</t>
   </si>
   <si>
     <r>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">{</t>
   </si>
   <si>
-    <t xml:space="preserve">else,id,{,if,while,return,int,double,String,boolean,}</t>
+    <t xml:space="preserve">else,id,fqid,{,if,while,return,int,double,String,boolean,}</t>
   </si>
   <si>
     <r>
@@ -1521,6 +1521,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">fqid</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1585,7 +1588,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">id,{,if,while,return,int,double,String,boolean,}</t>
+    <t xml:space="preserve">fqid,id,{,if,while,return,int,double,String,boolean,}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id,fqid</t>
   </si>
   <si>
     <r>
@@ -2119,7 +2125,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">E,id</t>
+    <t xml:space="preserve">E,id,fqid</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
@@ -2343,7 +2349,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">id,string-literal,int-literal,double-literal,boolean-literal</t>
+    <t xml:space="preserve">id,fqid,string-literal,int-literal,double-literal,boolean-literal</t>
   </si>
   <si>
     <r>
@@ -2780,220 +2786,217 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">double-literal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String-literal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t xml:space="preserve">else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-LIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-MEMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-MEMB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEMB-LIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-MEMB-FUNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-MEMB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN-DEF-PLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN-DEF-PLIST1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-DEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN-BODY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT-COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT-LIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPT-ASSIGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSIGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RET-VAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN-PLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN-PLIST1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAL-ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;= mnoziny su zastarale!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class, $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static, }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void, int, double, String, boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int, double, String, boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int, doube, String, boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(, =, ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">",", )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id, if, while, return, {, int, double, String, boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id, if while, return, {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id, if, while, return, {</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ID1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(, =</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ID1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. id</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double-literal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String-literal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if </t>
-  </si>
-  <si>
-    <t xml:space="preserve">else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-LIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-MEMB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-MEMB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEMB-LIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-MEMB-FUNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-MEMB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN-DEF-PLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN-DEF-PLIST1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-DEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN-BODY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT-COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT-LIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS-CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPT-ASSIGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSIGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RET-VAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN-PLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN-PLIST1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAL-ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;= mnoziny su zastarale!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class, $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">static, }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void, int, double, String, boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int, double, String, boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int, doube, String, boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(, =, ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">",", )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id, if, while, return, {, int, double, String, boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id, if while, return, {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id, if, while, return, {</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ID1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(, =</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ID1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. id</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3096,6 +3099,9 @@
   </si>
   <si>
     <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID1</t>
   </si>
 </sst>
 </file>
@@ -3503,14 +3509,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -3596,21 +3595,20 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.60714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="59.8724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="10.1071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="20.2142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="24.3622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.33163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="64.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.7142857142857"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4109,7 +4107,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4122,14 +4120,16 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
         <v>30</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="13" t="n">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4149,7 +4149,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
@@ -4163,13 +4163,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4177,13 +4177,13 @@
         <v>33</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4191,13 +4191,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4205,13 +4205,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="13" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>37</v>
@@ -4225,7 +4225,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
@@ -4239,19 +4239,19 @@
         <v>37</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="13" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4259,13 +4259,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4273,7 +4273,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="13" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
@@ -4307,13 +4307,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="13" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>40</v>
@@ -4327,13 +4327,13 @@
         <v>42</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4341,7 +4341,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C43" s="13" t="n">
         <v>1</v>
@@ -4361,7 +4361,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
@@ -4375,19 +4375,19 @@
         <v>45</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C45" s="13" t="n">
         <v>0</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4395,13 +4395,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4409,13 +4409,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4423,13 +4423,13 @@
         <v>48</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4437,13 +4437,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4451,19 +4451,19 @@
         <v>50</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C50" s="13" t="n">
         <v>1</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4471,7 +4471,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="14"/>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="54">
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -4513,7 +4513,6 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
     <mergeCell ref="C30:C34"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="E30:E34"/>
@@ -4554,23 +4553,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23"/>
       <c r="B1" s="24" t="s">
         <v>37</v>
@@ -4585,10 +4584,10 @@
         <v>23</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>24</v>
@@ -4603,7 +4602,7 @@
         <v>30</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M1" s="24" t="s">
         <v>32</v>
@@ -4618,31 +4617,31 @@
         <v>13</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U1" s="24" t="s">
         <v>35</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W1" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X1" s="24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y1" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z1" s="24" t="s">
         <v>8</v>
@@ -4651,9 +4650,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -4686,18 +4685,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="27" t="n">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
@@ -4719,9 +4718,9 @@
       <c r="Z3" s="27"/>
       <c r="AA3" s="27"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4760,18 +4759,18 @@
       <c r="Z4" s="27"/>
       <c r="AA4" s="27"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="27" t="n">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
@@ -4795,9 +4794,9 @@
       <c r="Z5" s="27"/>
       <c r="AA5" s="27"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -4834,9 +4833,9 @@
       <c r="Z6" s="27"/>
       <c r="AA6" s="27"/>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -4867,9 +4866,9 @@
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" s="27" t="n">
         <v>14</v>
@@ -4904,9 +4903,9 @@
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -4945,9 +4944,9 @@
       <c r="Z9" s="27"/>
       <c r="AA9" s="27"/>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27" t="n">
@@ -4980,9 +4979,9 @@
       <c r="Z10" s="27"/>
       <c r="AA10" s="27"/>
     </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -5019,9 +5018,9 @@
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -5029,7 +5028,9 @@
       <c r="E12" s="27" t="n">
         <v>21</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="27" t="n">
+        <v>21</v>
+      </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="n">
         <v>22</v>
@@ -5070,9 +5071,9 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -5103,9 +5104,9 @@
       <c r="Z13" s="27"/>
       <c r="AA13" s="27"/>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -5113,7 +5114,9 @@
       <c r="E14" s="27" t="n">
         <v>25</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="27" t="n">
+        <v>25</v>
+      </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -5146,9 +5149,9 @@
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
     </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -5156,7 +5159,9 @@
       <c r="E15" s="27" t="n">
         <v>27</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="27" t="n">
+        <v>28</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -5179,57 +5184,57 @@
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
     </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="27" t="n">
-        <v>29</v>
-      </c>
+      <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27" t="n">
-        <v>28</v>
-      </c>
+      <c r="E16" s="27" t="n">
+        <v>30</v>
+      </c>
+      <c r="F16" s="27" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
-      <c r="M16" s="27" t="n">
-        <v>29</v>
-      </c>
-      <c r="N16" s="27" t="n">
-        <v>29</v>
-      </c>
-      <c r="O16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27" t="n">
+        <v>31</v>
+      </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
-      <c r="U16" s="27" t="n">
-        <v>29</v>
-      </c>
-      <c r="V16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27" t="n">
+        <v>32</v>
+      </c>
       <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
+      <c r="X16" s="27" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y16" s="27" t="n">
+        <v>34</v>
+      </c>
       <c r="Z16" s="27"/>
       <c r="AA16" s="27"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="27" t="n">
-        <v>30</v>
-      </c>
+      <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -5237,35 +5242,33 @@
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
+      <c r="M17" s="27" t="n">
+        <v>35</v>
+      </c>
       <c r="N17" s="27"/>
-      <c r="O17" s="27" t="n">
-        <v>31</v>
-      </c>
+      <c r="O17" s="27"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27" t="n">
-        <v>32</v>
-      </c>
+      <c r="U17" s="27" t="n">
+        <v>36</v>
+      </c>
+      <c r="V17" s="27"/>
       <c r="W17" s="27"/>
-      <c r="X17" s="27" t="n">
-        <v>33</v>
-      </c>
-      <c r="Y17" s="27" t="n">
-        <v>34</v>
-      </c>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="27"/>
+        <v>118</v>
+      </c>
+      <c r="B18" s="27" t="n">
+        <v>39</v>
+      </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -5276,9 +5279,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
-      <c r="M18" s="27" t="n">
-        <v>35</v>
-      </c>
+      <c r="M18" s="27"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
@@ -5287,7 +5288,7 @@
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
       <c r="U18" s="27" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V18" s="27"/>
       <c r="W18" s="27"/>
@@ -5296,23 +5297,27 @@
       <c r="Z18" s="27"/>
       <c r="AA18" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="27" t="n">
-        <v>39</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="27" t="n">
+        <v>38</v>
+      </c>
+      <c r="F19" s="27" t="n">
+        <v>38</v>
+      </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27" t="n">
+        <v>37</v>
+      </c>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
@@ -5321,9 +5326,7 @@
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
-      <c r="U19" s="27" t="n">
-        <v>40</v>
-      </c>
+      <c r="U19" s="27"/>
       <c r="V19" s="27"/>
       <c r="W19" s="27"/>
       <c r="X19" s="27"/>
@@ -5331,16 +5334,16 @@
       <c r="Z19" s="27"/>
       <c r="AA19" s="27"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="27"/>
+        <v>120</v>
+      </c>
+      <c r="B20" s="27" t="n">
+        <v>51</v>
+      </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="27" t="n">
-        <v>38</v>
-      </c>
+      <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -5348,7 +5351,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -5366,33 +5369,43 @@
       <c r="Z20" s="27"/>
       <c r="AA20" s="27"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="27" t="n">
-        <v>51</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="E21" s="27" t="n">
+        <v>42</v>
+      </c>
+      <c r="F21" s="27" t="n">
+        <v>42</v>
+      </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
-      <c r="L21" s="27" t="n">
-        <v>50</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="N21" s="27" t="n">
+        <v>41</v>
+      </c>
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
+      <c r="Q21" s="27" t="n">
+        <v>42</v>
+      </c>
+      <c r="R21" s="27" t="n">
+        <v>42</v>
+      </c>
+      <c r="S21" s="27" t="n">
+        <v>42</v>
+      </c>
+      <c r="T21" s="27" t="n">
+        <v>42</v>
+      </c>
       <c r="U21" s="27"/>
       <c r="V21" s="27"/>
       <c r="W21" s="27"/>
@@ -5401,16 +5414,16 @@
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="27" t="n">
+        <v>44</v>
+      </c>
       <c r="D22" s="27"/>
-      <c r="E22" s="27" t="n">
-        <v>42</v>
-      </c>
+      <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -5420,22 +5433,14 @@
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
-      <c r="Q22" s="27" t="n">
-        <v>42</v>
-      </c>
-      <c r="R22" s="27" t="n">
-        <v>42</v>
-      </c>
-      <c r="S22" s="27" t="n">
-        <v>42</v>
-      </c>
-      <c r="T22" s="27" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
       <c r="U22" s="27"/>
       <c r="V22" s="27"/>
       <c r="W22" s="27"/>
@@ -5444,17 +5449,19 @@
       <c r="Z22" s="27"/>
       <c r="AA22" s="27"/>
     </row>
-    <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="27" t="n">
-        <v>44</v>
-      </c>
+      <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="E23" s="27" t="n">
+        <v>45</v>
+      </c>
+      <c r="F23" s="27" t="n">
+        <v>45</v>
+      </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -5462,15 +5469,21 @@
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
-      <c r="N23" s="27" t="n">
-        <v>43</v>
-      </c>
+      <c r="N23" s="27"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
+      <c r="Q23" s="27" t="n">
+        <v>47</v>
+      </c>
+      <c r="R23" s="27" t="n">
+        <v>48</v>
+      </c>
+      <c r="S23" s="27" t="n">
+        <v>46</v>
+      </c>
+      <c r="T23" s="27" t="n">
+        <v>49</v>
+      </c>
       <c r="U23" s="27"/>
       <c r="V23" s="27"/>
       <c r="W23" s="27"/>
@@ -5479,54 +5492,14 @@
       <c r="Z23" s="27"/>
       <c r="AA23" s="27"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27" t="n">
-        <v>45</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27" t="n">
-        <v>47</v>
-      </c>
-      <c r="R24" s="27" t="n">
-        <v>48</v>
-      </c>
-      <c r="S24" s="27" t="n">
-        <v>46</v>
-      </c>
-      <c r="T24" s="27" t="n">
-        <v>49</v>
-      </c>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="C23:D23">
+  <conditionalFormatting sqref="C22:D22">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -5556,13 +5529,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.60714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="59.8724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="10.1071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="20.2142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="47.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.33163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="64.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.7142857142857"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6006,7 +5978,7 @@
         <v>54</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>54</v>
@@ -6077,13 +6049,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>136</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6091,13 +6063,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6105,7 +6077,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="13" t="n">
         <v>0</v>
@@ -6114,7 +6086,7 @@
         <v>134</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>23</v>
@@ -6125,7 +6097,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
@@ -6139,13 +6111,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6153,13 +6125,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6167,13 +6139,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6181,7 +6153,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="13" t="n">
         <v>0</v>
@@ -6201,7 +6173,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
@@ -6215,19 +6187,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="13" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6235,7 +6207,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
@@ -6249,13 +6221,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" s="13" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>37</v>
@@ -6269,7 +6241,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
@@ -6283,13 +6255,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C42" s="13" t="n">
         <v>1</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>40</v>
@@ -6303,13 +6275,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6317,7 +6289,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C44" s="13" t="n">
         <v>1</v>
@@ -6337,7 +6309,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -6351,13 +6323,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C46" s="13" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>131</v>
@@ -6371,13 +6343,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6385,13 +6357,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6399,13 +6371,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6413,13 +6385,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6427,19 +6399,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C51" s="13" t="n">
         <v>1</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6447,7 +6419,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="14"/>
@@ -6530,21 +6502,18 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.530612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="0" width="9.33163265306122"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.030612244898"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.4591836734694"/>
-    <col collapsed="false" hidden="false" max="28" min="19" style="0" width="9.33163265306122"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="28" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="29" width="11.2755102040816"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="30" width="47.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="9.33163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="28" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="29" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="30" width="50.6224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="34" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6565,7 +6534,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>24</v>
@@ -6580,7 +6549,7 @@
         <v>30</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M1" s="24" t="s">
         <v>32</v>
@@ -6595,34 +6564,34 @@
         <v>13</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U1" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V1" s="24" t="s">
         <v>35</v>
       </c>
       <c r="W1" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X1" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y1" s="24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA1" s="24" t="s">
         <v>8</v>
@@ -6636,7 +6605,7 @@
     </row>
     <row r="2" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -6675,7 +6644,7 @@
     </row>
     <row r="3" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -6712,7 +6681,7 @@
     </row>
     <row r="4" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -6757,7 +6726,7 @@
     </row>
     <row r="5" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -6796,7 +6765,7 @@
     </row>
     <row r="6" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -6839,7 +6808,7 @@
     </row>
     <row r="7" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -6876,7 +6845,7 @@
     </row>
     <row r="8" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" s="27" t="n">
         <v>14</v>
@@ -6917,7 +6886,7 @@
     </row>
     <row r="9" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -6962,7 +6931,7 @@
     </row>
     <row r="10" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27" t="n">
@@ -7001,7 +6970,7 @@
     </row>
     <row r="11" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -7044,7 +7013,7 @@
     </row>
     <row r="12" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -7097,7 +7066,7 @@
     </row>
     <row r="13" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -7134,7 +7103,7 @@
     </row>
     <row r="14" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -7181,7 +7150,7 @@
     </row>
     <row r="15" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -7218,7 +7187,7 @@
     </row>
     <row r="16" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -7611,7 +7580,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>24</v>
@@ -7626,7 +7595,7 @@
         <v>30</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M25" s="24" t="s">
         <v>32</v>
@@ -7641,34 +7610,34 @@
         <v>13</v>
       </c>
       <c r="Q25" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R25" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S25" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T25" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U25" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V25" s="24" t="s">
         <v>35</v>
       </c>
       <c r="W25" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X25" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y25" s="24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Z25" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA25" s="24" t="s">
         <v>8</v>
